--- a/testplan.xlsx
+++ b/testplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mizusawaryou/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mizusawaryou/til/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAD47B3-F6C5-6648-A0A7-4E307A3AE221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB83E228-D8EB-8A43-9C2A-B33D2F326CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
@@ -681,7 +681,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
-      <c r="A9"/>
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -759,7 +761,9 @@
       <c r="D21"/>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
-      <c r="A22"/>
+      <c r="A22">
+        <v>1</v>
+      </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
